--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Mesotrione/Mesotrione_Absolute ED/Data Sheet_Meso_GH.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Mesotrione/Mesotrione_Absolute ED/Data Sheet_Meso_GH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Mesotrione/Mesotrione_Absolute ED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="739" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{765F4931-9F90-464F-952A-14ED35D4EADA}"/>
+  <xr:revisionPtr revIDLastSave="745" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B1A2E2-E562-4773-9A66-3C4D07B8E2C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:K1176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17443,9 +17443,7 @@
       </c>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
-      <c r="K483" s="4">
-        <v>100</v>
-      </c>
+      <c r="K483" s="4"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">

--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Mesotrione/Mesotrione_Absolute ED/Data Sheet_Meso_GH.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Mesotrione/Mesotrione_Absolute ED/Data Sheet_Meso_GH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GH/Mesotrione/Mesotrione_Absolute ED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607D4B28-C2DE-4280-A6B4-CE95B0A3C152}"/>
+  <xr:revisionPtr revIDLastSave="757" documentId="13_ncr:1_{89FD5D1D-3D87-4757-8BFA-C102849210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A566BB59-758F-4B02-9522-44D6ACF5388A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1st Run" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$1153</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:K1176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17440,9 +17440,7 @@
       </c>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
-      <c r="K483" s="3">
-        <v>0</v>
-      </c>
+      <c r="K483" s="3"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
@@ -40900,7 +40898,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{B1852C99-FE6A-4ADE-9492-90621E86560E}"/>
+  <autoFilter ref="A1:K1153" xr:uid="{B1852C99-FE6A-4ADE-9492-90621E86560E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
